--- a/biology/Biologie cellulaire et moléculaire/Haplogroupe_V_(ADNmt)/Haplogroupe_V_(ADNmt).xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Haplogroupe_V_(ADNmt)/Haplogroupe_V_(ADNmt).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'haplogroupe V est un haplogroupe du génome mitochondrial humain. Ce clade serait originaire du Proche-Orient il y a plus de 14 000 ans. On le trouve aujourd'hui notamment en Laponie et dans le nord de l'Espagne.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'haplogroupe V est issu de la sous-classe HV0a de l'haplogroupe HV. Son foyer d'origine reste débattu parmi les chercheurs, avec différentes hypothèses émises depuis 1998, parmi lesquelles une origine au Proche-Orient il y a au moins 14 000 ans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'haplogroupe V est issu de la sous-classe HV0a de l'haplogroupe HV. Son foyer d'origine reste débattu parmi les chercheurs, avec différentes hypothèses émises depuis 1998, parmi lesquelles une origine au Proche-Orient il y a au moins 14 000 ans.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Archéogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'haplogroupe V a été trouvé au Maghreb sur des restes fossiles associés à des vestiges ibéromaurusiens de la grotte des Pigeons, à Tafoughalt, au Maroc, datés d'environ 14 000 ans avant le présent[2].
-L'haplogroupe V a également été signalé dans des vestiges fossiles de la culture rubanée, à Halberstadt, en Allemagne, datés d'environ 5500 av. J.-C.[3], et à Derenburg Meerenstieg, près de Blankenburg (Harz), en Allemagne, datés d'environ 4910 av. J.-C.[4]. L'haplogroupe V7 a été trouvé dans des restes fossiles représentatifs de la culture de Maïkop lors de fouilles menées par Alexei Rezepkin (en). L'haplogroupe V a été détecté chez des représentants des cultures Trypil'ska et d'Unétice (Âge du bronze).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'haplogroupe V a été trouvé au Maghreb sur des restes fossiles associés à des vestiges ibéromaurusiens de la grotte des Pigeons, à Tafoughalt, au Maroc, datés d'environ 14 000 ans avant le présent.
+L'haplogroupe V a également été signalé dans des vestiges fossiles de la culture rubanée, à Halberstadt, en Allemagne, datés d'environ 5500 av. J.-C., et à Derenburg Meerenstieg, près de Blankenburg (Harz), en Allemagne, datés d'environ 4910 av. J.-C.. L'haplogroupe V7 a été trouvé dans des restes fossiles représentatifs de la culture de Maïkop lors de fouilles menées par Alexei Rezepkin (en). L'haplogroupe V a été détecté chez des représentants des cultures Trypil'ska et d'Unétice (Âge du bronze).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Distribution actuelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’haplogroupe V est un haplogroupe d’ADNmt relativement rare, présent chez environ 4 % des Européens autochtones. Sa plus forte concentration se situe parmi le peuple sami du nord de la Scandinavie (~ 59 %). Il a été trouvé à une fréquence d'environ 10 % chez les Maris de la région Volga-Oural, ce qui laisse à penser que cette région pourrait être à l'origine du V chez les Samis. De plus, l'haplogroupe V a été observé à des niveaux supérieurs à la moyenne parmi les habitants de Cantabrie (15 %) du nord de la péninsule Ibérique et chez les Basques adjacents (10,4 %).
 </t>
